--- a/Code/Results/Cases/Case_7_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00567750151232</v>
+        <v>1.005677501512321</v>
       </c>
       <c r="D2">
-        <v>1.025759530362295</v>
+        <v>1.025759530362296</v>
       </c>
       <c r="E2">
         <v>1.010555492835584</v>
       </c>
       <c r="F2">
-        <v>1.029824739302493</v>
+        <v>1.029824739302494</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.045703018893758</v>
       </c>
       <c r="J2">
-        <v>1.027689715481679</v>
+        <v>1.02768971548168</v>
       </c>
       <c r="K2">
         <v>1.036871289990532</v>
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013819092437358</v>
+        <v>1.01381909243736</v>
       </c>
       <c r="D3">
-        <v>1.032095983693553</v>
+        <v>1.032095983693554</v>
       </c>
       <c r="E3">
-        <v>1.017393511688353</v>
+        <v>1.017393511688354</v>
       </c>
       <c r="F3">
-        <v>1.036722239574924</v>
+        <v>1.036722239574925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048131045126978</v>
+        <v>1.048131045126979</v>
       </c>
       <c r="J3">
-        <v>1.033939995212294</v>
+        <v>1.033939995212296</v>
       </c>
       <c r="K3">
-        <v>1.042334022348331</v>
+        <v>1.042334022348332</v>
       </c>
       <c r="L3">
-        <v>1.027808573195367</v>
+        <v>1.027808573195369</v>
       </c>
       <c r="M3">
-        <v>1.046905861679962</v>
+        <v>1.046905861679963</v>
       </c>
       <c r="N3">
-        <v>1.035408308600071</v>
+        <v>1.035408308600072</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018922013077475</v>
+        <v>1.018922013077474</v>
       </c>
       <c r="D4">
-        <v>1.036069907435434</v>
+        <v>1.036069907435433</v>
       </c>
       <c r="E4">
         <v>1.021685276570061</v>
       </c>
       <c r="F4">
-        <v>1.041051001883746</v>
+        <v>1.041051001883745</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049639957225165</v>
+        <v>1.049639957225164</v>
       </c>
       <c r="J4">
-        <v>1.037853771629221</v>
+        <v>1.03785377162922</v>
       </c>
       <c r="K4">
-        <v>1.045751650838247</v>
+        <v>1.045751650838245</v>
       </c>
       <c r="L4">
-        <v>1.031528838934617</v>
+        <v>1.031528838934616</v>
       </c>
       <c r="M4">
         <v>1.050677990975103</v>
       </c>
       <c r="N4">
-        <v>1.039327643028426</v>
+        <v>1.039327643028425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021030089564728</v>
+        <v>1.021030089564727</v>
       </c>
       <c r="D5">
-        <v>1.03771202785539</v>
+        <v>1.037712027855388</v>
       </c>
       <c r="E5">
-        <v>1.023459559367829</v>
+        <v>1.023459559367828</v>
       </c>
       <c r="F5">
-        <v>1.04284047314334</v>
+        <v>1.042840473143339</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260133647047</v>
+        <v>1.050260133647046</v>
       </c>
       <c r="J5">
-        <v>1.039469624422571</v>
+        <v>1.03946962442257</v>
       </c>
       <c r="K5">
-        <v>1.047161909776647</v>
+        <v>1.047161909776645</v>
       </c>
       <c r="L5">
-        <v>1.033065143697617</v>
+        <v>1.033065143697616</v>
       </c>
       <c r="M5">
-        <v>1.052235603539411</v>
+        <v>1.05223560353941</v>
       </c>
       <c r="N5">
-        <v>1.040945790518084</v>
+        <v>1.040945790518082</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021381928806286</v>
+        <v>1.021381928806288</v>
       </c>
       <c r="D6">
-        <v>1.037986121283976</v>
+        <v>1.037986121283977</v>
       </c>
       <c r="E6">
-        <v>1.023755761970192</v>
+        <v>1.023755761970194</v>
       </c>
       <c r="F6">
-        <v>1.043139204323088</v>
+        <v>1.04313920432309</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05036345271219</v>
+        <v>1.050363452712191</v>
       </c>
       <c r="J6">
-        <v>1.039739251686418</v>
+        <v>1.03973925168642</v>
       </c>
       <c r="K6">
-        <v>1.047397185699455</v>
+        <v>1.047397185699456</v>
       </c>
       <c r="L6">
-        <v>1.033321517270033</v>
+        <v>1.033321517270035</v>
       </c>
       <c r="M6">
-        <v>1.052495525765498</v>
+        <v>1.0524955257655</v>
       </c>
       <c r="N6">
-        <v>1.041215800683572</v>
+        <v>1.041215800683574</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018950324465509</v>
+        <v>1.018950324465507</v>
       </c>
       <c r="D7">
-        <v>1.036091959454517</v>
+        <v>1.036091959454516</v>
       </c>
       <c r="E7">
-        <v>1.021709100094</v>
+        <v>1.021709100093999</v>
       </c>
       <c r="F7">
-        <v>1.0410750298016</v>
+        <v>1.041075029801598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049648298831168</v>
+        <v>1.049648298831167</v>
       </c>
       <c r="J7">
-        <v>1.037875476431485</v>
+        <v>1.037875476431483</v>
       </c>
       <c r="K7">
-        <v>1.045770597041263</v>
+        <v>1.045770597041261</v>
       </c>
       <c r="L7">
-        <v>1.031549473861991</v>
+        <v>1.031549473861989</v>
       </c>
       <c r="M7">
-        <v>1.050698912563797</v>
+        <v>1.050698912563795</v>
       </c>
       <c r="N7">
-        <v>1.039349378653998</v>
+        <v>1.039349378653996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,10 +667,10 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008464697269802</v>
+        <v>1.008464697269801</v>
       </c>
       <c r="D8">
-        <v>1.027928159334802</v>
+        <v>1.027928159334801</v>
       </c>
       <c r="E8">
         <v>1.012895109711201</v>
@@ -685,7 +685,7 @@
         <v>1.046536909351192</v>
       </c>
       <c r="J8">
-        <v>1.029830173955733</v>
+        <v>1.029830173955732</v>
       </c>
       <c r="K8">
         <v>1.038742661543761</v>
@@ -697,7 +697,7 @@
         <v>1.042945727597554</v>
       </c>
       <c r="N8">
-        <v>1.031292650925922</v>
+        <v>1.031292650925921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.988603104224714</v>
+        <v>0.9886031042247132</v>
       </c>
       <c r="D9">
-        <v>1.012491175380167</v>
+        <v>1.012491175380166</v>
       </c>
       <c r="E9">
-        <v>0.9962536160635492</v>
+        <v>0.9962536160635485</v>
       </c>
       <c r="F9">
-        <v>1.015397909220063</v>
+        <v>1.015397909220062</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -732,13 +732,13 @@
         <v>1.025384791428491</v>
       </c>
       <c r="L9">
-        <v>1.00940776958368</v>
+        <v>1.009407769583679</v>
       </c>
       <c r="M9">
-        <v>1.028246009981181</v>
+        <v>1.02824600998118</v>
       </c>
       <c r="N9">
-        <v>1.016005634864587</v>
+        <v>1.016005634864586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.974240817355898</v>
+        <v>0.9742408173558972</v>
       </c>
       <c r="D10">
         <v>1.001357863587878</v>
       </c>
       <c r="E10">
-        <v>0.9842658289409449</v>
+        <v>0.9842658289409444</v>
       </c>
       <c r="F10">
-        <v>1.00330671984369</v>
+        <v>1.003306719843689</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.03614377389101</v>
       </c>
       <c r="J10">
-        <v>1.003515079838186</v>
+        <v>1.003515079838185</v>
       </c>
       <c r="K10">
         <v>1.015702644591904</v>
       </c>
       <c r="L10">
-        <v>0.9989251010921867</v>
+        <v>0.9989251010921864</v>
       </c>
       <c r="M10">
-        <v>1.017616526010297</v>
+        <v>1.017616526010296</v>
       </c>
       <c r="N10">
-        <v>1.004940186356345</v>
+        <v>1.004940186356344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9677048274712278</v>
+        <v>0.9677048274712265</v>
       </c>
       <c r="D11">
-        <v>0.996301273718752</v>
+        <v>0.9963012737187511</v>
       </c>
       <c r="E11">
-        <v>0.9788238107846085</v>
+        <v>0.9788238107846072</v>
       </c>
       <c r="F11">
-        <v>0.9978186580415768</v>
+        <v>0.9978186580415759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034128745182938</v>
+        <v>1.034128745182937</v>
       </c>
       <c r="J11">
-        <v>0.9984856966031344</v>
+        <v>0.998485696603133</v>
       </c>
       <c r="K11">
-        <v>1.011293281323071</v>
+        <v>1.01129328132307</v>
       </c>
       <c r="L11">
-        <v>0.994156442012334</v>
+        <v>0.9941564420123329</v>
       </c>
       <c r="M11">
-        <v>1.012781828854533</v>
+        <v>1.012781828854532</v>
       </c>
       <c r="N11">
-        <v>0.9999036608202208</v>
+        <v>0.9999036608202198</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9652243004043762</v>
+        <v>0.9652243004043779</v>
       </c>
       <c r="D12">
-        <v>0.9943839923889101</v>
+        <v>0.9943839923889114</v>
       </c>
       <c r="E12">
-        <v>0.9767607186724747</v>
+        <v>0.976760718672476</v>
       </c>
       <c r="F12">
-        <v>0.9957383032784178</v>
+        <v>0.9957383032784193</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.033362132723533</v>
       </c>
       <c r="J12">
-        <v>0.9965770007153024</v>
+        <v>0.9965770007153039</v>
       </c>
       <c r="K12">
-        <v>1.009619583001747</v>
+        <v>1.009619583001748</v>
       </c>
       <c r="L12">
-        <v>0.9923471134357902</v>
+        <v>0.9923471134357916</v>
       </c>
       <c r="M12">
-        <v>1.010947608670418</v>
+        <v>1.010947608670419</v>
       </c>
       <c r="N12">
-        <v>0.9979922543652979</v>
+        <v>0.9979922543652993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9657588608828659</v>
+        <v>0.9657588608828676</v>
       </c>
       <c r="D13">
-        <v>0.9947970861925599</v>
+        <v>0.9947970861925612</v>
       </c>
       <c r="E13">
-        <v>0.9772052149084907</v>
+        <v>0.977205214908492</v>
       </c>
       <c r="F13">
-        <v>0.9961865090725349</v>
+        <v>0.996186509072536</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.033527421672684</v>
       </c>
       <c r="J13">
-        <v>0.9969883248168577</v>
+        <v>0.9969883248168592</v>
       </c>
       <c r="K13">
-        <v>1.00998027778876</v>
+        <v>1.009980277788761</v>
       </c>
       <c r="L13">
-        <v>0.9927370044273485</v>
+        <v>0.99273700442735</v>
       </c>
       <c r="M13">
-        <v>1.011342855206192</v>
+        <v>1.011342855206193</v>
       </c>
       <c r="N13">
-        <v>0.9984041625942567</v>
+        <v>0.9984041625942581</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9675008953139568</v>
+        <v>0.9675008953139558</v>
       </c>
       <c r="D14">
-        <v>0.9961436098214531</v>
+        <v>0.9961436098214523</v>
       </c>
       <c r="E14">
-        <v>0.9786541501632477</v>
+        <v>0.978654150163247</v>
       </c>
       <c r="F14">
-        <v>0.9976475735421239</v>
+        <v>0.9976475735421226</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.034065756487148</v>
       </c>
       <c r="J14">
-        <v>0.9983287745023884</v>
+        <v>0.9983287745023876</v>
       </c>
       <c r="K14">
-        <v>1.011155685179745</v>
+        <v>1.011155685179744</v>
       </c>
       <c r="L14">
-        <v>0.9940076806380727</v>
+        <v>0.9940076806380718</v>
       </c>
       <c r="M14">
-        <v>1.012631017257082</v>
+        <v>1.01263101725708</v>
       </c>
       <c r="N14">
-        <v>0.9997465158720925</v>
+        <v>0.9997465158720915</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685670608023779</v>
+        <v>0.9685670608023783</v>
       </c>
       <c r="D15">
-        <v>0.9969679573367339</v>
+        <v>0.9969679573367347</v>
       </c>
       <c r="E15">
-        <v>0.9795412356583711</v>
+        <v>0.9795412356583715</v>
       </c>
       <c r="F15">
-        <v>0.9985421120985746</v>
+        <v>0.998542112098575</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.034394988851006</v>
       </c>
       <c r="J15">
-        <v>0.9991491725244075</v>
+        <v>0.9991491725244082</v>
       </c>
       <c r="K15">
-        <v>1.01187503394787</v>
+        <v>1.011875033947871</v>
       </c>
       <c r="L15">
-        <v>0.9947854311332645</v>
+        <v>0.9947854311332648</v>
       </c>
       <c r="M15">
         <v>1.013419493686815</v>
       </c>
       <c r="N15">
-        <v>1.000568078953404</v>
+        <v>1.000568078953405</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746674886188393</v>
+        <v>0.9746674886188391</v>
       </c>
       <c r="D16">
         <v>1.001688188274992</v>
       </c>
       <c r="E16">
-        <v>0.9846213812922898</v>
+        <v>0.9846213812922888</v>
       </c>
       <c r="F16">
-        <v>1.003665303664785</v>
+        <v>1.003665303664784</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1019,13 +1019,13 @@
         <v>1.015990440377065</v>
       </c>
       <c r="L16">
-        <v>0.9992364532785458</v>
+        <v>0.9992364532785449</v>
       </c>
       <c r="M16">
         <v>1.017932209599134</v>
       </c>
       <c r="N16">
-        <v>1.00526896860998</v>
+        <v>1.005268968609979</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784058533141459</v>
+        <v>0.9784058533141471</v>
       </c>
       <c r="D17">
-        <v>1.004583544403087</v>
+        <v>1.004583544403088</v>
       </c>
       <c r="E17">
-        <v>0.9877381547681485</v>
+        <v>0.9877381547681501</v>
       </c>
       <c r="F17">
-        <v>1.006808758208597</v>
+        <v>1.006808758208598</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037423749197675</v>
+        <v>1.037423749197676</v>
       </c>
       <c r="J17">
-        <v>1.006719923404967</v>
+        <v>1.006719923404969</v>
       </c>
       <c r="K17">
-        <v>1.018511681954238</v>
+        <v>1.018511681954239</v>
       </c>
       <c r="L17">
-        <v>1.001964649488937</v>
+        <v>1.001964649488938</v>
       </c>
       <c r="M17">
-        <v>1.020698449225763</v>
+        <v>1.020698449225764</v>
       </c>
       <c r="N17">
-        <v>1.008149581168591</v>
+        <v>1.008149581168593</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805561748069193</v>
+        <v>0.9805561748069225</v>
       </c>
       <c r="D18">
-        <v>1.006249876046325</v>
+        <v>1.006249876046328</v>
       </c>
       <c r="E18">
-        <v>0.989532170708619</v>
+        <v>0.9895321707086211</v>
       </c>
       <c r="F18">
-        <v>1.008618211806323</v>
+        <v>1.008618211806326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038083213315055</v>
+        <v>1.038083213315057</v>
       </c>
       <c r="J18">
-        <v>1.008374419994008</v>
+        <v>1.00837441999401</v>
       </c>
       <c r="K18">
-        <v>1.019961593543675</v>
+        <v>1.019961593543678</v>
       </c>
       <c r="L18">
-        <v>1.003534072442339</v>
+        <v>1.003534072442342</v>
       </c>
       <c r="M18">
-        <v>1.022289823582535</v>
+        <v>1.022289823582538</v>
       </c>
       <c r="N18">
-        <v>1.009806427332562</v>
+        <v>1.009806427332564</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981284399771303</v>
+        <v>0.981284399771302</v>
       </c>
       <c r="D19">
-        <v>1.006814340379756</v>
+        <v>1.006814340379755</v>
       </c>
       <c r="E19">
-        <v>0.9901399327690835</v>
+        <v>0.9901399327690827</v>
       </c>
       <c r="F19">
-        <v>1.009231215698244</v>
+        <v>1.009231215698243</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038306326558975</v>
+        <v>1.038306326558974</v>
       </c>
       <c r="J19">
-        <v>1.008934708995698</v>
+        <v>1.008934708995697</v>
       </c>
       <c r="K19">
-        <v>1.020452559052153</v>
+        <v>1.020452559052152</v>
       </c>
       <c r="L19">
-        <v>1.00406559191876</v>
+        <v>1.004065591918759</v>
       </c>
       <c r="M19">
         <v>1.022828787241817</v>
       </c>
       <c r="N19">
-        <v>1.010367512008901</v>
+        <v>1.0103675120089</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,13 +1159,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780079209570022</v>
+        <v>0.9780079209570028</v>
       </c>
       <c r="D20">
         <v>1.004275249818583</v>
       </c>
       <c r="E20">
-        <v>0.9874062578987142</v>
+        <v>0.9874062578987148</v>
       </c>
       <c r="F20">
         <v>1.006474011439634</v>
@@ -1177,19 +1177,19 @@
         <v>1.037301606506565</v>
       </c>
       <c r="J20">
-        <v>1.006413738290332</v>
+        <v>1.006413738290333</v>
       </c>
       <c r="K20">
         <v>1.018243338383998</v>
       </c>
       <c r="L20">
-        <v>1.001674227765079</v>
+        <v>1.00167422776508</v>
       </c>
       <c r="M20">
         <v>1.020403970442543</v>
       </c>
       <c r="N20">
-        <v>1.007842961235973</v>
+        <v>1.007842961235974</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1203,13 +1203,13 @@
         <v>0.9669894114789701</v>
       </c>
       <c r="D21">
-        <v>0.9957482015302147</v>
+        <v>0.9957482015302145</v>
       </c>
       <c r="E21">
         <v>0.9782286601120386</v>
       </c>
       <c r="F21">
-        <v>0.9972185158699352</v>
+        <v>0.9972185158699349</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.0339077445108</v>
       </c>
       <c r="J21">
-        <v>0.9979351983437355</v>
+        <v>0.9979351983437353</v>
       </c>
       <c r="K21">
         <v>1.010810575755761</v>
       </c>
       <c r="L21">
-        <v>0.9936345792429465</v>
+        <v>0.9936345792429466</v>
       </c>
       <c r="M21">
-        <v>1.012252776627533</v>
+        <v>1.012252776627532</v>
       </c>
       <c r="N21">
-        <v>0.9993523807901504</v>
+        <v>0.9993523807901505</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9597531806096606</v>
+        <v>0.9597531806096601</v>
       </c>
       <c r="D22">
-        <v>0.9901588399964777</v>
+        <v>0.9901588399964772</v>
       </c>
       <c r="E22">
-        <v>0.9722147643270034</v>
+        <v>0.9722147643270027</v>
       </c>
       <c r="F22">
-        <v>0.9911547383490305</v>
+        <v>0.9911547383490299</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.031667997710734</v>
       </c>
       <c r="J22">
-        <v>0.992367430236771</v>
+        <v>0.9923674302367704</v>
       </c>
       <c r="K22">
         <v>1.005927805995756</v>
       </c>
       <c r="L22">
-        <v>0.9883575054206355</v>
+        <v>0.9883575054206346</v>
       </c>
       <c r="M22">
-        <v>1.006903481963927</v>
+        <v>1.006903481963926</v>
       </c>
       <c r="N22">
-        <v>0.9937767058138426</v>
+        <v>0.9937767058138419</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9636204111607547</v>
+        <v>0.9636204111607569</v>
       </c>
       <c r="D23">
-        <v>0.9931448368220871</v>
+        <v>0.9931448368220888</v>
       </c>
       <c r="E23">
-        <v>0.9754274079007561</v>
+        <v>0.975427407900758</v>
       </c>
       <c r="F23">
-        <v>0.9943938984689642</v>
+        <v>0.9943938984689663</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032865939891553</v>
+        <v>1.032865939891554</v>
       </c>
       <c r="J23">
-        <v>0.9953428902153435</v>
+        <v>0.9953428902153456</v>
       </c>
       <c r="K23">
-        <v>1.008537338021294</v>
+        <v>1.008537338021296</v>
       </c>
       <c r="L23">
-        <v>0.991177373453242</v>
+        <v>0.991177373453244</v>
       </c>
       <c r="M23">
-        <v>1.009761829654135</v>
+        <v>1.009761829654137</v>
       </c>
       <c r="N23">
-        <v>0.9967563912868747</v>
+        <v>0.9967563912868765</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,13 +1323,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9781878224181655</v>
+        <v>0.9781878224181647</v>
       </c>
       <c r="D24">
-        <v>1.004414624075764</v>
+        <v>1.004414624075763</v>
       </c>
       <c r="E24">
-        <v>0.9875563015147492</v>
+        <v>0.9875563015147486</v>
       </c>
       <c r="F24">
         <v>1.006625343191018</v>
@@ -1341,10 +1341,10 @@
         <v>1.037356830029393</v>
       </c>
       <c r="J24">
-        <v>1.006552161991087</v>
+        <v>1.006552161991086</v>
       </c>
       <c r="K24">
-        <v>1.018364654976586</v>
+        <v>1.018364654976585</v>
       </c>
       <c r="L24">
         <v>1.001805524218943</v>
@@ -1353,7 +1353,7 @@
         <v>1.020537100845097</v>
       </c>
       <c r="N24">
-        <v>1.007981581514261</v>
+        <v>1.00798158151426</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9939199991306347</v>
+        <v>0.993919999130633</v>
       </c>
       <c r="D25">
-        <v>1.016619485821369</v>
+        <v>1.016619485821368</v>
       </c>
       <c r="E25">
-        <v>1.000701421864201</v>
+        <v>1.000701421864199</v>
       </c>
       <c r="F25">
-        <v>1.019884514449153</v>
+        <v>1.019884514449152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042158009281627</v>
+        <v>1.042158009281626</v>
       </c>
       <c r="J25">
-        <v>1.018653726451177</v>
+        <v>1.018653726451176</v>
       </c>
       <c r="K25">
-        <v>1.028965169784721</v>
+        <v>1.02896516978472</v>
       </c>
       <c r="L25">
-        <v>1.013288858911337</v>
+        <v>1.013288858911336</v>
       </c>
       <c r="M25">
-        <v>1.03218179633801</v>
+        <v>1.032181796338009</v>
       </c>
       <c r="N25">
-        <v>1.020100331583953</v>
+        <v>1.020100331583952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005677501512321</v>
+        <v>1.000284746313795</v>
       </c>
       <c r="D2">
-        <v>1.025759530362296</v>
+        <v>1.022258210580465</v>
       </c>
       <c r="E2">
-        <v>1.010555492835584</v>
+        <v>1.006546217574542</v>
       </c>
       <c r="F2">
-        <v>1.029824739302494</v>
+        <v>1.030373380522094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045703018893758</v>
+        <v>1.044949723515851</v>
       </c>
       <c r="J2">
-        <v>1.02768971548168</v>
+        <v>1.022456944001321</v>
       </c>
       <c r="K2">
-        <v>1.036871289990532</v>
+        <v>1.033415923593125</v>
       </c>
       <c r="L2">
-        <v>1.021869705786236</v>
+        <v>1.01791510036829</v>
       </c>
       <c r="M2">
-        <v>1.040883635341489</v>
+        <v>1.041425182056165</v>
       </c>
       <c r="N2">
-        <v>1.029149152755321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011005908967824</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041357642932037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01381909243736</v>
+        <v>1.005005062018206</v>
       </c>
       <c r="D3">
-        <v>1.032095983693554</v>
+        <v>1.025509888733414</v>
       </c>
       <c r="E3">
-        <v>1.017393511688354</v>
+        <v>1.010343154733413</v>
       </c>
       <c r="F3">
-        <v>1.036722239574925</v>
+        <v>1.033533150885423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048131045126979</v>
+        <v>1.045930865624875</v>
       </c>
       <c r="J3">
-        <v>1.033939995212296</v>
+        <v>1.025360207732999</v>
       </c>
       <c r="K3">
-        <v>1.042334022348332</v>
+        <v>1.035826447437994</v>
       </c>
       <c r="L3">
-        <v>1.027808573195369</v>
+        <v>1.02084538164613</v>
       </c>
       <c r="M3">
-        <v>1.046905861679963</v>
+        <v>1.043754220209726</v>
       </c>
       <c r="N3">
-        <v>1.035408308600072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012017761548741</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043200915939007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018922013077474</v>
+        <v>1.007996710924879</v>
       </c>
       <c r="D4">
-        <v>1.036069907435433</v>
+        <v>1.027573447971432</v>
       </c>
       <c r="E4">
-        <v>1.021685276570061</v>
+        <v>1.012755490611783</v>
       </c>
       <c r="F4">
-        <v>1.041051001883745</v>
+        <v>1.035542074561282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049639957225164</v>
+        <v>1.04654227409875</v>
       </c>
       <c r="J4">
-        <v>1.03785377162922</v>
+        <v>1.027198048656072</v>
       </c>
       <c r="K4">
-        <v>1.045751650838245</v>
+        <v>1.037350096934063</v>
       </c>
       <c r="L4">
-        <v>1.031528838934616</v>
+        <v>1.022702367608374</v>
       </c>
       <c r="M4">
-        <v>1.050677990975103</v>
+        <v>1.045229658075363</v>
       </c>
       <c r="N4">
-        <v>1.039327643028425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012657572635988</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04436862079506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021030089564727</v>
+        <v>1.009239927543329</v>
       </c>
       <c r="D5">
-        <v>1.037712027855388</v>
+        <v>1.028431566439675</v>
       </c>
       <c r="E5">
-        <v>1.023459559367828</v>
+        <v>1.013759334515864</v>
       </c>
       <c r="F5">
-        <v>1.042840473143339</v>
+        <v>1.036378353305122</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260133647046</v>
+        <v>1.0467938052949</v>
       </c>
       <c r="J5">
-        <v>1.03946962442257</v>
+        <v>1.027961217523723</v>
       </c>
       <c r="K5">
-        <v>1.047161909776645</v>
+        <v>1.037982231565738</v>
       </c>
       <c r="L5">
-        <v>1.033065143697616</v>
+        <v>1.023473976192591</v>
       </c>
       <c r="M5">
-        <v>1.05223560353941</v>
+        <v>1.045842582412446</v>
       </c>
       <c r="N5">
-        <v>1.040945790518082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01292307691057</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044853706566343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021381928806288</v>
+        <v>1.009447835613791</v>
       </c>
       <c r="D6">
-        <v>1.037986121283977</v>
+        <v>1.028575105223656</v>
       </c>
       <c r="E6">
-        <v>1.023755761970194</v>
+        <v>1.013927290351004</v>
       </c>
       <c r="F6">
-        <v>1.04313920432309</v>
+        <v>1.036518290516873</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050363452712191</v>
+        <v>1.046835718785484</v>
       </c>
       <c r="J6">
-        <v>1.03973925168642</v>
+        <v>1.028088810666913</v>
       </c>
       <c r="K6">
-        <v>1.047397185699456</v>
+        <v>1.038087883476267</v>
       </c>
       <c r="L6">
-        <v>1.033321517270035</v>
+        <v>1.023603009145182</v>
       </c>
       <c r="M6">
-        <v>1.0524955257655</v>
+        <v>1.04594507021967</v>
       </c>
       <c r="N6">
-        <v>1.041215800683574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012967455466772</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044934818303597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018950324465507</v>
+        <v>1.008013379017419</v>
       </c>
       <c r="D7">
-        <v>1.036091959454516</v>
+        <v>1.027584950757312</v>
       </c>
       <c r="E7">
-        <v>1.021709100093999</v>
+        <v>1.012768944038689</v>
       </c>
       <c r="F7">
-        <v>1.041075029801598</v>
+        <v>1.035553281123684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049648298831167</v>
+        <v>1.046545656558743</v>
       </c>
       <c r="J7">
-        <v>1.037875476431483</v>
+        <v>1.027208282938405</v>
       </c>
       <c r="K7">
-        <v>1.045770597041261</v>
+        <v>1.037358576274657</v>
       </c>
       <c r="L7">
-        <v>1.031549473861989</v>
+        <v>1.022712713134546</v>
       </c>
       <c r="M7">
-        <v>1.050698912563795</v>
+        <v>1.045237876599904</v>
       </c>
       <c r="N7">
-        <v>1.039349378653996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.0126611338308</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044375125171503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008464697269801</v>
+        <v>1.001893318159326</v>
       </c>
       <c r="D8">
-        <v>1.027928159334801</v>
+        <v>1.023365695614871</v>
       </c>
       <c r="E8">
-        <v>1.012895109711201</v>
+        <v>1.007838854155379</v>
       </c>
       <c r="F8">
-        <v>1.032184761425701</v>
+        <v>1.031448786131418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046536909351192</v>
+        <v>1.045286230195345</v>
       </c>
       <c r="J8">
-        <v>1.029830173955732</v>
+        <v>1.023446741475297</v>
       </c>
       <c r="K8">
-        <v>1.038742661543761</v>
+        <v>1.034238198592376</v>
       </c>
       <c r="L8">
-        <v>1.023903196286462</v>
+        <v>1.018913679889121</v>
       </c>
       <c r="M8">
-        <v>1.042945727597554</v>
+        <v>1.042218969399527</v>
       </c>
       <c r="N8">
-        <v>1.031292650925921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011351021972131</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041985871373341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9886031042247132</v>
+        <v>0.9906029428797037</v>
       </c>
       <c r="D9">
-        <v>1.012491175380166</v>
+        <v>1.015606810636299</v>
       </c>
       <c r="E9">
-        <v>0.9962536160635485</v>
+        <v>0.9987932182601705</v>
       </c>
       <c r="F9">
-        <v>1.015397909220062</v>
+        <v>1.023930520915864</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040542023027523</v>
+        <v>1.042882045869687</v>
       </c>
       <c r="J9">
-        <v>1.01456483642465</v>
+        <v>1.016491955953661</v>
       </c>
       <c r="K9">
-        <v>1.025384791428491</v>
+        <v>1.028451653129045</v>
       </c>
       <c r="L9">
-        <v>1.009407769583679</v>
+        <v>1.011905905046367</v>
       </c>
       <c r="M9">
-        <v>1.02824600998118</v>
+        <v>1.03664691702462</v>
       </c>
       <c r="N9">
-        <v>1.016005634864586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008923330530237</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037575961090577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9742408173558972</v>
+        <v>0.9827801415065122</v>
       </c>
       <c r="D10">
-        <v>1.001357863587878</v>
+        <v>1.010279348893963</v>
       </c>
       <c r="E10">
-        <v>0.9842658289409444</v>
+        <v>0.9925725229142282</v>
       </c>
       <c r="F10">
-        <v>1.003306719843689</v>
+        <v>1.018838118416747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03614377389101</v>
+        <v>1.041191833565916</v>
       </c>
       <c r="J10">
-        <v>1.003515079838185</v>
+        <v>1.011694025685818</v>
       </c>
       <c r="K10">
-        <v>1.015702644591904</v>
+        <v>1.024465454124012</v>
       </c>
       <c r="L10">
-        <v>0.9989251010921864</v>
+        <v>1.007077190330835</v>
       </c>
       <c r="M10">
-        <v>1.017616526010296</v>
+        <v>1.032875375769136</v>
       </c>
       <c r="N10">
-        <v>1.004940186356344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007254330577708</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0346426995241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9677048274712265</v>
+        <v>0.9799673857270659</v>
       </c>
       <c r="D11">
-        <v>0.9963012737187511</v>
+        <v>1.008588493149197</v>
       </c>
       <c r="E11">
-        <v>0.9788238107846072</v>
+        <v>0.9904293991923913</v>
       </c>
       <c r="F11">
-        <v>0.9978186580415759</v>
+        <v>1.01762254174718</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034128745182937</v>
+        <v>1.040790503976048</v>
       </c>
       <c r="J11">
-        <v>0.998485696603133</v>
+        <v>1.010197962044341</v>
       </c>
       <c r="K11">
-        <v>1.01129328132307</v>
+        <v>1.023350240442886</v>
       </c>
       <c r="L11">
-        <v>0.9941564420123329</v>
+        <v>1.005534088483702</v>
       </c>
       <c r="M11">
-        <v>1.012781828854532</v>
+        <v>1.032219602851984</v>
       </c>
       <c r="N11">
-        <v>0.9999036608202198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006812053770185</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034561916140693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9652243004043779</v>
+        <v>0.9791677203773015</v>
       </c>
       <c r="D12">
-        <v>0.9943839923889114</v>
+        <v>1.008211090373028</v>
       </c>
       <c r="E12">
-        <v>0.976760718672476</v>
+        <v>0.9898648998739437</v>
       </c>
       <c r="F12">
-        <v>0.9957383032784193</v>
+        <v>1.017552747367851</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033362132723533</v>
+        <v>1.04077768939194</v>
       </c>
       <c r="J12">
-        <v>0.9965770007153039</v>
+        <v>1.009880677666266</v>
       </c>
       <c r="K12">
-        <v>1.009619583001748</v>
+        <v>1.023182651663147</v>
       </c>
       <c r="L12">
-        <v>0.9923471134357916</v>
+        <v>1.005188882867376</v>
       </c>
       <c r="M12">
-        <v>1.010947608670419</v>
+        <v>1.032351217497216</v>
       </c>
       <c r="N12">
-        <v>0.9979922543652993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006767853890073</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034993697828673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9657588608828676</v>
+        <v>0.9798694486080441</v>
       </c>
       <c r="D13">
-        <v>0.9947970861925612</v>
+        <v>1.00882354239151</v>
       </c>
       <c r="E13">
-        <v>0.977205214908492</v>
+        <v>0.9904788637140546</v>
       </c>
       <c r="F13">
-        <v>0.996186509072536</v>
+        <v>1.018373767975442</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033527421672684</v>
+        <v>1.041069192604524</v>
       </c>
       <c r="J13">
-        <v>0.9969883248168592</v>
+        <v>1.010455060006185</v>
       </c>
       <c r="K13">
-        <v>1.009980277788761</v>
+        <v>1.02374015445416</v>
       </c>
       <c r="L13">
-        <v>0.99273700442735</v>
+        <v>1.005746119908337</v>
       </c>
       <c r="M13">
-        <v>1.011342855206193</v>
+        <v>1.033114341449553</v>
       </c>
       <c r="N13">
-        <v>0.9984041625942581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007028372973395</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035874643746822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9675008953139558</v>
+        <v>0.9810367901797801</v>
       </c>
       <c r="D14">
-        <v>0.9961436098214523</v>
+        <v>1.009696800902928</v>
       </c>
       <c r="E14">
-        <v>0.978654150163247</v>
+        <v>0.9914389099182195</v>
       </c>
       <c r="F14">
-        <v>0.9976475735421226</v>
+        <v>1.019348065080596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034065756487148</v>
+        <v>1.0414087124601</v>
       </c>
       <c r="J14">
-        <v>0.9983287745023876</v>
+        <v>1.011257123623814</v>
       </c>
       <c r="K14">
-        <v>1.011155685179744</v>
+        <v>1.024454869817762</v>
       </c>
       <c r="L14">
-        <v>0.9940076806380718</v>
+        <v>1.006541285655887</v>
       </c>
       <c r="M14">
-        <v>1.01263101725708</v>
+        <v>1.033930605081089</v>
       </c>
       <c r="N14">
-        <v>0.9997465158720915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007347076158362</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036693639404991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685670608023783</v>
+        <v>0.9816507975345133</v>
       </c>
       <c r="D15">
-        <v>0.9969679573367347</v>
+        <v>1.010130349485676</v>
       </c>
       <c r="E15">
-        <v>0.9795412356583715</v>
+        <v>0.9919324647394756</v>
       </c>
       <c r="F15">
-        <v>0.998542112098575</v>
+        <v>1.019792446211073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034394988851006</v>
+        <v>1.041560766367336</v>
       </c>
       <c r="J15">
-        <v>0.9991491725244082</v>
+        <v>1.011651517022193</v>
       </c>
       <c r="K15">
-        <v>1.011875033947871</v>
+        <v>1.024792837357192</v>
       </c>
       <c r="L15">
-        <v>0.9947854311332648</v>
+        <v>1.006935359930007</v>
       </c>
       <c r="M15">
-        <v>1.013419493686815</v>
+        <v>1.034280605573592</v>
       </c>
       <c r="N15">
-        <v>1.000568078953405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007492670454526</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037007894989346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746674886188391</v>
+        <v>0.9848329871555422</v>
       </c>
       <c r="D16">
-        <v>1.001688188274992</v>
+        <v>1.012273632090134</v>
       </c>
       <c r="E16">
-        <v>0.9846213812922888</v>
+        <v>0.9944438483007473</v>
       </c>
       <c r="F16">
-        <v>1.003665303664784</v>
+        <v>1.021822309730906</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036275049682478</v>
+        <v>1.042236582190987</v>
       </c>
       <c r="J16">
-        <v>1.003843395845432</v>
+        <v>1.013582802186687</v>
       </c>
       <c r="K16">
-        <v>1.015990440377065</v>
+        <v>1.026388725336582</v>
       </c>
       <c r="L16">
-        <v>0.9992364532785449</v>
+        <v>1.008877175570289</v>
       </c>
       <c r="M16">
-        <v>1.017932209599134</v>
+        <v>1.035772870813461</v>
       </c>
       <c r="N16">
-        <v>1.005268968609979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008151549986424</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038148584068252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784058533141471</v>
+        <v>0.9866619565631947</v>
       </c>
       <c r="D17">
-        <v>1.004583544403088</v>
+        <v>1.013459860867047</v>
       </c>
       <c r="E17">
-        <v>0.9877381547681501</v>
+        <v>0.9958687434423575</v>
       </c>
       <c r="F17">
-        <v>1.006808758208598</v>
+        <v>1.022863715120814</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037423749197676</v>
+        <v>1.042573852546237</v>
       </c>
       <c r="J17">
-        <v>1.006719923404969</v>
+        <v>1.014642524558059</v>
       </c>
       <c r="K17">
-        <v>1.018511681954239</v>
+        <v>1.027235935225888</v>
       </c>
       <c r="L17">
-        <v>1.001964649488938</v>
+        <v>1.009949598379974</v>
       </c>
       <c r="M17">
-        <v>1.020698449225764</v>
+        <v>1.036482394663713</v>
       </c>
       <c r="N17">
-        <v>1.008149581168593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008489256760016</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038580131324815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805561748069225</v>
+        <v>0.9874926345204621</v>
       </c>
       <c r="D18">
-        <v>1.006249876046328</v>
+        <v>1.013916543324901</v>
       </c>
       <c r="E18">
-        <v>0.9895321707086211</v>
+        <v>0.9964822754718539</v>
       </c>
       <c r="F18">
-        <v>1.008618211806326</v>
+        <v>1.023109524770577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038083213315057</v>
+        <v>1.042642685950245</v>
       </c>
       <c r="J18">
-        <v>1.00837441999401</v>
+        <v>1.015036627011101</v>
       </c>
       <c r="K18">
-        <v>1.019961593543678</v>
+        <v>1.027499306341887</v>
       </c>
       <c r="L18">
-        <v>1.003534072442342</v>
+        <v>1.010362006950256</v>
       </c>
       <c r="M18">
-        <v>1.022289823582538</v>
+        <v>1.036540934142175</v>
       </c>
       <c r="N18">
-        <v>1.009806427332564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008576191878349</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038388218190882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981284399771302</v>
+        <v>0.9874155584395774</v>
       </c>
       <c r="D19">
-        <v>1.006814340379755</v>
+        <v>1.013708123494055</v>
       </c>
       <c r="E19">
-        <v>0.9901399327690827</v>
+        <v>0.9963585543852691</v>
       </c>
       <c r="F19">
-        <v>1.009231215698243</v>
+        <v>1.022625521975025</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038306326558974</v>
+        <v>1.042469476122236</v>
       </c>
       <c r="J19">
-        <v>1.008934708995697</v>
+        <v>1.014825105598823</v>
       </c>
       <c r="K19">
-        <v>1.020452559052152</v>
+        <v>1.027231061380413</v>
       </c>
       <c r="L19">
-        <v>1.004065591918759</v>
+        <v>1.01017555865433</v>
       </c>
       <c r="M19">
-        <v>1.022828787241817</v>
+        <v>1.036002300058504</v>
       </c>
       <c r="N19">
-        <v>1.0103675120089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00843993071463</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03763598524226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780079209570028</v>
+        <v>0.9848139780852603</v>
       </c>
       <c r="D20">
-        <v>1.004275249818583</v>
+        <v>1.011663848157585</v>
       </c>
       <c r="E20">
-        <v>0.9874062578987148</v>
+        <v>0.9941873641411475</v>
       </c>
       <c r="F20">
-        <v>1.006474011439634</v>
+        <v>1.020162633819448</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037301606506565</v>
+        <v>1.041636048741228</v>
       </c>
       <c r="J20">
-        <v>1.006413738290333</v>
+        <v>1.012943112606294</v>
       </c>
       <c r="K20">
-        <v>1.018243338383998</v>
+        <v>1.025504657258434</v>
       </c>
       <c r="L20">
-        <v>1.00167422776508</v>
+        <v>1.008333197621216</v>
       </c>
       <c r="M20">
-        <v>1.020403970442543</v>
+        <v>1.03385997672763</v>
       </c>
       <c r="N20">
-        <v>1.007842961235974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007689396280458</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035411313164178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669894114789701</v>
+        <v>0.9787924030982039</v>
       </c>
       <c r="D21">
-        <v>0.9957482015302145</v>
+        <v>1.007530213427792</v>
       </c>
       <c r="E21">
-        <v>0.9782286601120386</v>
+        <v>0.9893974413595406</v>
       </c>
       <c r="F21">
-        <v>0.9972185158699349</v>
+        <v>1.016140665936238</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0339077445108</v>
+        <v>1.040276938850618</v>
       </c>
       <c r="J21">
-        <v>0.9979351983437353</v>
+        <v>1.009204366750437</v>
       </c>
       <c r="K21">
-        <v>1.010810575755761</v>
+        <v>1.022370314305294</v>
       </c>
       <c r="L21">
-        <v>0.9936345792429466</v>
+        <v>1.004582505602112</v>
       </c>
       <c r="M21">
-        <v>1.012252776627532</v>
+        <v>1.030822567536222</v>
       </c>
       <c r="N21">
-        <v>0.9993523807901505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006373947546555</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032966345200209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9597531806096601</v>
+        <v>0.9749554580469666</v>
       </c>
       <c r="D22">
-        <v>0.9901588399964772</v>
+        <v>1.004916041219279</v>
       </c>
       <c r="E22">
-        <v>0.9722147643270027</v>
+        <v>0.9863593894026361</v>
       </c>
       <c r="F22">
-        <v>0.9911547383490299</v>
+        <v>1.013626522442572</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031667997710734</v>
+        <v>1.039414452288117</v>
       </c>
       <c r="J22">
-        <v>0.9923674302367704</v>
+        <v>1.006835641578273</v>
       </c>
       <c r="K22">
-        <v>1.005927805995756</v>
+        <v>1.020390735416705</v>
       </c>
       <c r="L22">
-        <v>0.9883575054206346</v>
+        <v>1.002206000689849</v>
       </c>
       <c r="M22">
-        <v>1.006903481963926</v>
+        <v>1.02893278373169</v>
       </c>
       <c r="N22">
-        <v>0.9937767058138419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005544421582653</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031470690577731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9636204111607569</v>
+        <v>0.9769984899617018</v>
       </c>
       <c r="D23">
-        <v>0.9931448368220888</v>
+        <v>1.006307371139352</v>
       </c>
       <c r="E23">
-        <v>0.975427407900758</v>
+        <v>0.9879761662285775</v>
       </c>
       <c r="F23">
-        <v>0.9943938984689663</v>
+        <v>1.014964193291191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032865939891554</v>
+        <v>1.039874581465577</v>
       </c>
       <c r="J23">
-        <v>0.9953428902153456</v>
+        <v>1.00809692939448</v>
       </c>
       <c r="K23">
-        <v>1.008537338021296</v>
+        <v>1.021444963971557</v>
       </c>
       <c r="L23">
-        <v>0.991177373453244</v>
+        <v>1.003471207854502</v>
       </c>
       <c r="M23">
-        <v>1.009761829654137</v>
+        <v>1.029938837892336</v>
       </c>
       <c r="N23">
-        <v>0.9967563912868765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005986169032716</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032266924678535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9781878224181647</v>
+        <v>0.9848475665043722</v>
       </c>
       <c r="D24">
-        <v>1.004414624075763</v>
+        <v>1.011665575894961</v>
       </c>
       <c r="E24">
-        <v>0.9875563015147486</v>
+        <v>0.994206178751467</v>
       </c>
       <c r="F24">
-        <v>1.006625343191018</v>
+        <v>1.020124868303723</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037356830029393</v>
+        <v>1.041622645430989</v>
       </c>
       <c r="J24">
-        <v>1.006552161991086</v>
+        <v>1.012941637192204</v>
       </c>
       <c r="K24">
-        <v>1.018364654976585</v>
+        <v>1.025490881860202</v>
       </c>
       <c r="L24">
-        <v>1.001805524218943</v>
+        <v>1.008335810119797</v>
       </c>
       <c r="M24">
-        <v>1.020537100845097</v>
+        <v>1.033807551541929</v>
       </c>
       <c r="N24">
-        <v>1.00798158151426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007681916708726</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035328780969896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.993919999130633</v>
+        <v>0.9935855424366311</v>
       </c>
       <c r="D25">
-        <v>1.016619485821368</v>
+        <v>1.017653109338828</v>
       </c>
       <c r="E25">
-        <v>1.000701421864199</v>
+        <v>1.001176694843616</v>
       </c>
       <c r="F25">
-        <v>1.019884514449152</v>
+        <v>1.02590986052845</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042158009281626</v>
+        <v>1.043526275751967</v>
       </c>
       <c r="J25">
-        <v>1.018653726451176</v>
+        <v>1.01833072392694</v>
       </c>
       <c r="K25">
-        <v>1.02896516978472</v>
+        <v>1.029983427749585</v>
       </c>
       <c r="L25">
-        <v>1.013288858911336</v>
+        <v>1.013756771562298</v>
       </c>
       <c r="M25">
-        <v>1.032181796338009</v>
+        <v>1.038118846231183</v>
       </c>
       <c r="N25">
-        <v>1.020100331583952</v>
+        <v>1.009565768846313</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038740898168501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000284746313795</v>
+        <v>1.000517692696972</v>
       </c>
       <c r="D2">
-        <v>1.022258210580465</v>
+        <v>1.022082813900531</v>
       </c>
       <c r="E2">
-        <v>1.006546217574542</v>
+        <v>1.006776547756567</v>
       </c>
       <c r="F2">
-        <v>1.030373380522094</v>
+        <v>1.030315097865847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044949723515851</v>
+        <v>1.044914570940467</v>
       </c>
       <c r="J2">
-        <v>1.022456944001321</v>
+        <v>1.022682930682192</v>
       </c>
       <c r="K2">
-        <v>1.033415923593125</v>
+        <v>1.033242839306948</v>
       </c>
       <c r="L2">
-        <v>1.01791510036829</v>
+        <v>1.018142274957053</v>
       </c>
       <c r="M2">
-        <v>1.041425182056165</v>
+        <v>1.041367652606854</v>
       </c>
       <c r="N2">
-        <v>1.011005908967824</v>
+        <v>1.012949389251742</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041357642932037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041312112282804</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020828904847338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005005062018206</v>
+        <v>1.004913759840734</v>
       </c>
       <c r="D3">
-        <v>1.025509888733414</v>
+        <v>1.024988755725838</v>
       </c>
       <c r="E3">
-        <v>1.010343154733413</v>
+        <v>1.010288826918635</v>
       </c>
       <c r="F3">
-        <v>1.033533150885423</v>
+        <v>1.033220612589686</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045930865624875</v>
+        <v>1.045742828940181</v>
       </c>
       <c r="J3">
-        <v>1.025360207732999</v>
+        <v>1.025271361259045</v>
       </c>
       <c r="K3">
-        <v>1.035826447437994</v>
+        <v>1.035311580888613</v>
       </c>
       <c r="L3">
-        <v>1.02084538164613</v>
+        <v>1.020791731385791</v>
       </c>
       <c r="M3">
-        <v>1.043754220209726</v>
+        <v>1.04344536723131</v>
       </c>
       <c r="N3">
-        <v>1.012017761548741</v>
+        <v>1.013664974924607</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043200915939007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042956480384969</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021288169449519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007996710924879</v>
+        <v>1.007702928850587</v>
       </c>
       <c r="D4">
-        <v>1.027573447971432</v>
+        <v>1.026835173601439</v>
       </c>
       <c r="E4">
-        <v>1.012755490611783</v>
+        <v>1.012523171382892</v>
       </c>
       <c r="F4">
-        <v>1.035542074561282</v>
+        <v>1.035070154348073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04654227409875</v>
+        <v>1.046258156002295</v>
       </c>
       <c r="J4">
-        <v>1.027198048656072</v>
+        <v>1.026911624488033</v>
       </c>
       <c r="K4">
-        <v>1.037350096934063</v>
+        <v>1.036620160483459</v>
       </c>
       <c r="L4">
-        <v>1.022702367608374</v>
+        <v>1.02247276632191</v>
       </c>
       <c r="M4">
-        <v>1.045229658075363</v>
+        <v>1.044762965539368</v>
       </c>
       <c r="N4">
-        <v>1.012657572635988</v>
+        <v>1.014118028153044</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04436862079506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043999266818777</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021575973582996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009239927543329</v>
+        <v>1.008862683638451</v>
       </c>
       <c r="D5">
-        <v>1.028431566439675</v>
+        <v>1.0276035084481</v>
       </c>
       <c r="E5">
-        <v>1.013759334515864</v>
+        <v>1.013453600569564</v>
       </c>
       <c r="F5">
-        <v>1.036378353305122</v>
+        <v>1.035840601126223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0467938052949</v>
+        <v>1.046469946868194</v>
       </c>
       <c r="J5">
-        <v>1.027961217523723</v>
+        <v>1.027593135014182</v>
       </c>
       <c r="K5">
-        <v>1.037982231565738</v>
+        <v>1.037163274718435</v>
       </c>
       <c r="L5">
-        <v>1.023473976192591</v>
+        <v>1.023171721391083</v>
       </c>
       <c r="M5">
-        <v>1.045842582412446</v>
+        <v>1.045310627988746</v>
       </c>
       <c r="N5">
-        <v>1.01292307691057</v>
+        <v>1.014306164824144</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044853706566343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044432702708292</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021694769023021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009447835613791</v>
+        <v>1.009056672863762</v>
       </c>
       <c r="D6">
-        <v>1.028575105223656</v>
+        <v>1.02773205829351</v>
       </c>
       <c r="E6">
-        <v>1.013927290351004</v>
+        <v>1.013609310600059</v>
       </c>
       <c r="F6">
-        <v>1.036518290516873</v>
+        <v>1.035969551978117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046835718785484</v>
+        <v>1.046505225228416</v>
       </c>
       <c r="J6">
-        <v>1.028088810666913</v>
+        <v>1.027707097790707</v>
       </c>
       <c r="K6">
-        <v>1.038087883476267</v>
+        <v>1.037254059779668</v>
       </c>
       <c r="L6">
-        <v>1.023603009145182</v>
+        <v>1.02328863092769</v>
       </c>
       <c r="M6">
-        <v>1.04594507021967</v>
+        <v>1.045402220746633</v>
       </c>
       <c r="N6">
-        <v>1.012967455466772</v>
+        <v>1.014337619096795</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044934818303597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044505191838764</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021714587738844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008013379017419</v>
+        <v>1.007730103656995</v>
       </c>
       <c r="D7">
-        <v>1.027584950757312</v>
+        <v>1.026854145433422</v>
       </c>
       <c r="E7">
-        <v>1.012768944038689</v>
+        <v>1.012546291728708</v>
       </c>
       <c r="F7">
-        <v>1.035553281123684</v>
+        <v>1.035087595016517</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046545656558743</v>
+        <v>1.046265221563271</v>
       </c>
       <c r="J7">
-        <v>1.027208282938405</v>
+        <v>1.026932099330732</v>
       </c>
       <c r="K7">
-        <v>1.037358576274657</v>
+        <v>1.036636021460557</v>
       </c>
       <c r="L7">
-        <v>1.022712713134546</v>
+        <v>1.02249266468306</v>
       </c>
       <c r="M7">
-        <v>1.045237876599904</v>
+        <v>1.044777347218815</v>
       </c>
       <c r="N7">
-        <v>1.0126611338308</v>
+        <v>1.01415009724618</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044375125171503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044010648898801</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021580285119456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001893318159326</v>
+        <v>1.002051174613448</v>
       </c>
       <c r="D8">
-        <v>1.023365695614871</v>
+        <v>1.023099158180025</v>
       </c>
       <c r="E8">
-        <v>1.007838854155379</v>
+        <v>1.008004791137418</v>
       </c>
       <c r="F8">
-        <v>1.031448786131418</v>
+        <v>1.031325723270649</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045286230195345</v>
+        <v>1.045212031774766</v>
       </c>
       <c r="J8">
-        <v>1.023446741475297</v>
+        <v>1.02360004351303</v>
       </c>
       <c r="K8">
-        <v>1.034238198592376</v>
+        <v>1.033975069526522</v>
       </c>
       <c r="L8">
-        <v>1.018913679889121</v>
+        <v>1.019077413279825</v>
       </c>
       <c r="M8">
-        <v>1.042218969399527</v>
+        <v>1.042097449335472</v>
       </c>
       <c r="N8">
-        <v>1.011351021972131</v>
+        <v>1.013283501923426</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041985871373341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041889696581664</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02099462605279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9906029428797037</v>
+        <v>0.9915617007730066</v>
       </c>
       <c r="D9">
-        <v>1.015606810636299</v>
+        <v>1.016184428191058</v>
       </c>
       <c r="E9">
-        <v>0.9987932182601705</v>
+        <v>0.9996608102320735</v>
       </c>
       <c r="F9">
-        <v>1.023930520915864</v>
+        <v>1.024430623502457</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042882045869687</v>
+        <v>1.043180964677048</v>
       </c>
       <c r="J9">
-        <v>1.016491955953661</v>
+        <v>1.017415996923553</v>
       </c>
       <c r="K9">
-        <v>1.028451653129045</v>
+        <v>1.029020270404291</v>
       </c>
       <c r="L9">
-        <v>1.011905905046367</v>
+        <v>1.012759392951711</v>
       </c>
       <c r="M9">
-        <v>1.03664691702462</v>
+        <v>1.037139387099566</v>
       </c>
       <c r="N9">
-        <v>1.008923330530237</v>
+        <v>1.011581876000318</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037575961090577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037965719618857</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019879996303448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9827801415065122</v>
+        <v>0.9843608030948383</v>
       </c>
       <c r="D10">
-        <v>1.010279348893963</v>
+        <v>1.011488677649088</v>
       </c>
       <c r="E10">
-        <v>0.9925725229142282</v>
+        <v>0.993984576207117</v>
       </c>
       <c r="F10">
-        <v>1.018838118416747</v>
+        <v>1.019809674069435</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041191833565916</v>
+        <v>1.041770521917542</v>
       </c>
       <c r="J10">
-        <v>1.011694025685818</v>
+        <v>1.01320895452131</v>
       </c>
       <c r="K10">
-        <v>1.024465454124012</v>
+        <v>1.025653553118754</v>
       </c>
       <c r="L10">
-        <v>1.007077190330835</v>
+        <v>1.008463297066532</v>
       </c>
       <c r="M10">
-        <v>1.032875375769136</v>
+        <v>1.033830238926731</v>
       </c>
       <c r="N10">
-        <v>1.007254330577708</v>
+        <v>1.010542681026576</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0346426995241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035398367985417</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019119308600876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9799673857270659</v>
+        <v>0.9818004803479298</v>
       </c>
       <c r="D11">
-        <v>1.008588493149197</v>
+        <v>1.010034421947719</v>
       </c>
       <c r="E11">
-        <v>0.9904293991923913</v>
+        <v>0.9920603041168615</v>
       </c>
       <c r="F11">
-        <v>1.01762254174718</v>
+        <v>1.018773506203293</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040790503976048</v>
+        <v>1.041468536164156</v>
       </c>
       <c r="J11">
-        <v>1.010197962044341</v>
+        <v>1.011950481742389</v>
       </c>
       <c r="K11">
-        <v>1.023350240442886</v>
+        <v>1.024769552717152</v>
       </c>
       <c r="L11">
-        <v>1.005534088483702</v>
+        <v>1.007133520998526</v>
       </c>
       <c r="M11">
-        <v>1.032219602851984</v>
+        <v>1.033349858347379</v>
       </c>
       <c r="N11">
-        <v>1.006812053770185</v>
+        <v>1.01048414968257</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034561916140693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035455934911148</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018976962974618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9791677203773015</v>
+        <v>0.9810572598063811</v>
       </c>
       <c r="D12">
-        <v>1.008211090373028</v>
+        <v>1.009706471128576</v>
       </c>
       <c r="E12">
-        <v>0.9898648998739437</v>
+        <v>0.9915417043165892</v>
       </c>
       <c r="F12">
-        <v>1.017552747367851</v>
+        <v>1.018741027814144</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04077768939194</v>
+        <v>1.041471614389036</v>
       </c>
       <c r="J12">
-        <v>1.009880677666266</v>
+        <v>1.011685524118797</v>
       </c>
       <c r="K12">
-        <v>1.023182651663147</v>
+        <v>1.024650043551602</v>
       </c>
       <c r="L12">
-        <v>1.005188882867376</v>
+        <v>1.006832766036705</v>
       </c>
       <c r="M12">
-        <v>1.032351217497216</v>
+        <v>1.033517776578713</v>
       </c>
       <c r="N12">
-        <v>1.006767853890073</v>
+        <v>1.010560061422573</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034993697828673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035916117760994</v>
+      </c>
+      <c r="S12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T12">
+        <v>1.018993445009129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9798694486080441</v>
+        <v>0.9816494334570149</v>
       </c>
       <c r="D13">
-        <v>1.00882354239151</v>
+        <v>1.010213021574963</v>
       </c>
       <c r="E13">
-        <v>0.9904788637140546</v>
+        <v>0.9920546717836392</v>
       </c>
       <c r="F13">
-        <v>1.018373767975442</v>
+        <v>1.019480687696181</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041069192604524</v>
+        <v>1.041709390018372</v>
       </c>
       <c r="J13">
-        <v>1.010455060006185</v>
+        <v>1.012155705849874</v>
       </c>
       <c r="K13">
-        <v>1.02374015445416</v>
+        <v>1.025103751574902</v>
       </c>
       <c r="L13">
-        <v>1.005746119908337</v>
+        <v>1.0072911398556</v>
       </c>
       <c r="M13">
-        <v>1.033114341449553</v>
+        <v>1.03420113487082</v>
       </c>
       <c r="N13">
-        <v>1.007028372973395</v>
+        <v>1.010706218445015</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035874643746822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036733774369085</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019131672581288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9810367901797801</v>
+        <v>0.982666778993034</v>
       </c>
       <c r="D14">
-        <v>1.009696800902928</v>
+        <v>1.010943607818287</v>
       </c>
       <c r="E14">
-        <v>0.9914389099182195</v>
+        <v>0.9928794564111282</v>
       </c>
       <c r="F14">
-        <v>1.019348065080596</v>
+        <v>1.020345804592021</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.0414087124601</v>
+        <v>1.041980991314185</v>
       </c>
       <c r="J14">
-        <v>1.011257123623814</v>
+        <v>1.012815564328798</v>
       </c>
       <c r="K14">
-        <v>1.024454869817762</v>
+        <v>1.02567875533027</v>
       </c>
       <c r="L14">
-        <v>1.006541285655887</v>
+        <v>1.007954063759673</v>
       </c>
       <c r="M14">
-        <v>1.033930605081089</v>
+        <v>1.034910444558053</v>
       </c>
       <c r="N14">
-        <v>1.007347076158362</v>
+        <v>1.010840926507883</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036693639404991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037468116053258</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019283018142967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9816507975345133</v>
+        <v>0.9832091359256857</v>
       </c>
       <c r="D15">
-        <v>1.010130349485676</v>
+        <v>1.011309294582047</v>
       </c>
       <c r="E15">
-        <v>0.9919324647394756</v>
+        <v>0.9933091810432684</v>
       </c>
       <c r="F15">
-        <v>1.019792446211073</v>
+        <v>1.020738401598189</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041560766367336</v>
+        <v>1.042101855332899</v>
       </c>
       <c r="J15">
-        <v>1.011651517022193</v>
+        <v>1.013142080104324</v>
       </c>
       <c r="K15">
-        <v>1.024792837357192</v>
+        <v>1.025950279119463</v>
       </c>
       <c r="L15">
-        <v>1.006935359930007</v>
+        <v>1.008285752942427</v>
       </c>
       <c r="M15">
-        <v>1.034280605573592</v>
+        <v>1.035209723736522</v>
       </c>
       <c r="N15">
-        <v>1.007492670454526</v>
+        <v>1.010893560396408</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037007894989346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037742261582173</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019348534751338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9848329871555422</v>
+        <v>0.9860661555470053</v>
       </c>
       <c r="D16">
-        <v>1.012273632090134</v>
+        <v>1.013142799188591</v>
       </c>
       <c r="E16">
-        <v>0.9944438483007473</v>
+        <v>0.9955347563895307</v>
       </c>
       <c r="F16">
-        <v>1.021822309730906</v>
+        <v>1.022533232682286</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042236582190987</v>
+        <v>1.042640591946522</v>
       </c>
       <c r="J16">
-        <v>1.013582802186687</v>
+        <v>1.014765130149317</v>
       </c>
       <c r="K16">
-        <v>1.026388725336582</v>
+        <v>1.027242749818603</v>
       </c>
       <c r="L16">
-        <v>1.008877175570289</v>
+        <v>1.009948186586374</v>
       </c>
       <c r="M16">
-        <v>1.035772870813461</v>
+        <v>1.03647170261784</v>
       </c>
       <c r="N16">
-        <v>1.008151549986424</v>
+        <v>1.011120054678289</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038148584068252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.038700950375004</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019631950114494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9866619565631947</v>
+        <v>0.9877387414223147</v>
       </c>
       <c r="D17">
-        <v>1.013459860867047</v>
+        <v>1.014176886982658</v>
       </c>
       <c r="E17">
-        <v>0.9958687434423575</v>
+        <v>0.9968240588547836</v>
       </c>
       <c r="F17">
-        <v>1.022863715120814</v>
+        <v>1.023460326335908</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042573852546237</v>
+        <v>1.042912991599515</v>
       </c>
       <c r="J17">
-        <v>1.014642524558059</v>
+        <v>1.015676394891053</v>
       </c>
       <c r="K17">
-        <v>1.027235935225888</v>
+        <v>1.027940827651415</v>
       </c>
       <c r="L17">
-        <v>1.009949598379974</v>
+        <v>1.010888003922368</v>
       </c>
       <c r="M17">
-        <v>1.036482394663713</v>
+        <v>1.037069145799556</v>
       </c>
       <c r="N17">
-        <v>1.008489256760016</v>
+        <v>1.011253933075847</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038580131324815</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.039043953931206</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019771688954688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,93 +1335,111 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9874926345204621</v>
+        <v>0.9885267096845224</v>
       </c>
       <c r="D18">
-        <v>1.013916543324901</v>
+        <v>1.014590645010904</v>
       </c>
       <c r="E18">
-        <v>0.9964822754718539</v>
+        <v>0.9974031986910454</v>
       </c>
       <c r="F18">
-        <v>1.023109524770577</v>
+        <v>1.023674752434573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042642685950245</v>
+        <v>1.042967278590753</v>
       </c>
       <c r="J18">
-        <v>1.015036627011101</v>
+        <v>1.016030282876671</v>
       </c>
       <c r="K18">
-        <v>1.027499306341887</v>
+        <v>1.028162189581887</v>
       </c>
       <c r="L18">
-        <v>1.010362006950256</v>
+        <v>1.011266907364415</v>
       </c>
       <c r="M18">
-        <v>1.036540934142175</v>
+        <v>1.037096969819568</v>
       </c>
       <c r="N18">
-        <v>1.008576191878349</v>
+        <v>1.011275536396023</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038388218190882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.038827852433645</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019791478605726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>0.9874155584395774</v>
+        <v>0.9884990426389523</v>
       </c>
       <c r="D19">
-        <v>1.013708123494055</v>
+        <v>1.014430176587986</v>
       </c>
       <c r="E19">
-        <v>0.9963585543852691</v>
+        <v>0.9973267686235381</v>
       </c>
       <c r="F19">
-        <v>1.022625521975025</v>
+        <v>1.02322787568717</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042469476122236</v>
+        <v>1.042821126041164</v>
       </c>
       <c r="J19">
-        <v>1.014825105598823</v>
+        <v>1.015866481430699</v>
       </c>
       <c r="K19">
-        <v>1.027231061380413</v>
+        <v>1.027941156671716</v>
       </c>
       <c r="L19">
-        <v>1.01017555865433</v>
+        <v>1.011127013467865</v>
       </c>
       <c r="M19">
-        <v>1.036002300058504</v>
+        <v>1.036594898875029</v>
       </c>
       <c r="N19">
-        <v>1.00843993071463</v>
+        <v>1.011176008962378</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03763598524226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.038104682274962</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019701102288938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9848139780852603</v>
+        <v>0.9861976908996408</v>
       </c>
       <c r="D20">
-        <v>1.011663848157585</v>
+        <v>1.012682118779654</v>
       </c>
       <c r="E20">
-        <v>0.9941873641411475</v>
+        <v>0.9954255497644269</v>
       </c>
       <c r="F20">
-        <v>1.020162633819448</v>
+        <v>1.020989535298413</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041636048741228</v>
+        <v>1.042128877210488</v>
       </c>
       <c r="J20">
-        <v>1.012943112606294</v>
+        <v>1.014271235894815</v>
       </c>
       <c r="K20">
-        <v>1.025504657258434</v>
+        <v>1.02650557471282</v>
       </c>
       <c r="L20">
-        <v>1.008333197621216</v>
+        <v>1.009549315123919</v>
       </c>
       <c r="M20">
-        <v>1.03385997672763</v>
+        <v>1.034673083702268</v>
       </c>
       <c r="N20">
-        <v>1.007689396280458</v>
+        <v>1.010734420282738</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035411313164178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.036054804977373</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019310601939106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9787924030982039</v>
+        <v>0.9808386806364886</v>
       </c>
       <c r="D21">
-        <v>1.007530213427792</v>
+        <v>1.009177861616251</v>
       </c>
       <c r="E21">
-        <v>0.9893974413595406</v>
+        <v>0.9912242985712362</v>
       </c>
       <c r="F21">
-        <v>1.016140665936238</v>
+        <v>1.017447997497821</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040276938850618</v>
+        <v>1.041056473746232</v>
       </c>
       <c r="J21">
-        <v>1.009204366750437</v>
+        <v>1.011159963396</v>
       </c>
       <c r="K21">
-        <v>1.022370314305294</v>
+        <v>1.023987418067362</v>
       </c>
       <c r="L21">
-        <v>1.004582505602112</v>
+        <v>1.006373858725178</v>
       </c>
       <c r="M21">
-        <v>1.030822567536222</v>
+        <v>1.032106184075936</v>
       </c>
       <c r="N21">
-        <v>1.006373947546555</v>
+        <v>1.010298735740223</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032966345200209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.033982251657954</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018739738907843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9749554580469666</v>
+        <v>0.9774257991198607</v>
       </c>
       <c r="D22">
-        <v>1.004916041219279</v>
+        <v>1.006966420352821</v>
       </c>
       <c r="E22">
-        <v>0.9863593894026361</v>
+        <v>0.9885628230574157</v>
       </c>
       <c r="F22">
-        <v>1.013626522442572</v>
+        <v>1.015241775770079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039414452288117</v>
+        <v>1.040377494766838</v>
       </c>
       <c r="J22">
-        <v>1.006835641578273</v>
+        <v>1.009189796631045</v>
       </c>
       <c r="K22">
-        <v>1.020390735416705</v>
+        <v>1.02240112291413</v>
       </c>
       <c r="L22">
-        <v>1.002206000689849</v>
+        <v>1.004364309287578</v>
       </c>
       <c r="M22">
-        <v>1.02893278373169</v>
+        <v>1.030517218713453</v>
       </c>
       <c r="N22">
-        <v>1.005544421582653</v>
+        <v>1.010020584487964</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031470690577731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.032724679477441</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018381379409286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9769984899617018</v>
+        <v>0.9792226846002533</v>
       </c>
       <c r="D23">
-        <v>1.006307371139352</v>
+        <v>1.00812728216038</v>
       </c>
       <c r="E23">
-        <v>0.9879761662285775</v>
+        <v>0.9899601035540517</v>
       </c>
       <c r="F23">
-        <v>1.014964193291191</v>
+        <v>1.01640230655504</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039874581465577</v>
+        <v>1.040731869876299</v>
       </c>
       <c r="J23">
-        <v>1.00809692939448</v>
+        <v>1.010219741781921</v>
       </c>
       <c r="K23">
-        <v>1.021444963971557</v>
+        <v>1.023230314919276</v>
       </c>
       <c r="L23">
-        <v>1.003471207854502</v>
+        <v>1.005415619736816</v>
       </c>
       <c r="M23">
-        <v>1.029938837892336</v>
+        <v>1.031350232006494</v>
       </c>
       <c r="N23">
-        <v>1.005986169032716</v>
+        <v>1.010122822910636</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032266924678535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.03338396055073</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018567234393995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9848475665043722</v>
+        <v>0.9862331962752364</v>
       </c>
       <c r="D24">
-        <v>1.011665575894961</v>
+        <v>1.012685800901101</v>
       </c>
       <c r="E24">
-        <v>0.994206178751467</v>
+        <v>0.9954464732950643</v>
       </c>
       <c r="F24">
-        <v>1.020124868303723</v>
+        <v>1.020953367495443</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041622645430989</v>
+        <v>1.042117016971615</v>
       </c>
       <c r="J24">
-        <v>1.012941637192204</v>
+        <v>1.01427168445134</v>
       </c>
       <c r="K24">
-        <v>1.025490881860202</v>
+        <v>1.026493742851172</v>
       </c>
       <c r="L24">
-        <v>1.008335810119797</v>
+        <v>1.009554028649028</v>
       </c>
       <c r="M24">
-        <v>1.033807551541929</v>
+        <v>1.034622246002447</v>
       </c>
       <c r="N24">
-        <v>1.007681916708726</v>
+        <v>1.010725747578909</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035328780969896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.035973561387835</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019302801917409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9935855424366311</v>
+        <v>0.9943149586399711</v>
       </c>
       <c r="D25">
-        <v>1.017653109338828</v>
+        <v>1.017994686989194</v>
       </c>
       <c r="E25">
-        <v>1.001176694843616</v>
+        <v>1.001843058554803</v>
       </c>
       <c r="F25">
-        <v>1.02590986052845</v>
+        <v>1.026234479614158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043526275751967</v>
+        <v>1.043720426225155</v>
       </c>
       <c r="J25">
-        <v>1.01833072392694</v>
+        <v>1.019035173586891</v>
       </c>
       <c r="K25">
-        <v>1.029983427749585</v>
+        <v>1.030319936322918</v>
       </c>
       <c r="L25">
-        <v>1.013756771562298</v>
+        <v>1.014412830630253</v>
       </c>
       <c r="M25">
-        <v>1.038118846231183</v>
+        <v>1.038438745634761</v>
       </c>
       <c r="N25">
-        <v>1.009565768846313</v>
+        <v>1.011996481197608</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038740898168501</v>
+        <v>1.038994077672931</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020173769070201</v>
       </c>
     </row>
   </sheetData>
